--- a/data/pca/factorExposure/factorExposure_2011-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006836845622602767</v>
+        <v>0.01334472516586069</v>
       </c>
       <c r="C2">
-        <v>0.00114237264712546</v>
+        <v>-0.001213728237205085</v>
       </c>
       <c r="D2">
-        <v>-0.05113070393891692</v>
+        <v>0.002767375326697209</v>
       </c>
       <c r="E2">
-        <v>4.401383500298799e-05</v>
+        <v>0.03375022460493895</v>
       </c>
       <c r="F2">
-        <v>-0.01516509274256035</v>
+        <v>-0.0148933588369924</v>
       </c>
       <c r="G2">
-        <v>-0.007395767724376923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.000145398961217071</v>
+      </c>
+      <c r="H2">
+        <v>-0.006498790116350221</v>
+      </c>
+      <c r="I2">
+        <v>0.05431701355353938</v>
+      </c>
+      <c r="J2">
+        <v>0.0550694298592332</v>
+      </c>
+      <c r="K2">
+        <v>0.02577759877335842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1025450674028787</v>
+        <v>0.1133786521856186</v>
       </c>
       <c r="C4">
-        <v>0.03329294843574674</v>
+        <v>-0.06306181501548093</v>
       </c>
       <c r="D4">
-        <v>-0.04722632611609798</v>
+        <v>-0.002633977167312866</v>
       </c>
       <c r="E4">
-        <v>-0.06438166279654628</v>
+        <v>0.02676905079194193</v>
       </c>
       <c r="F4">
-        <v>-0.03191074803418074</v>
+        <v>-0.0211989978571877</v>
       </c>
       <c r="G4">
-        <v>-0.02934488841624798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.1422416219551406</v>
+      </c>
+      <c r="H4">
+        <v>0.062035421606964</v>
+      </c>
+      <c r="I4">
+        <v>0.01646359114614054</v>
+      </c>
+      <c r="J4">
+        <v>-0.03763716814853464</v>
+      </c>
+      <c r="K4">
+        <v>-0.0280561333163147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1296549824498934</v>
+        <v>0.1264581274601633</v>
       </c>
       <c r="C6">
-        <v>0.02512834382352211</v>
+        <v>-0.03138290369341842</v>
       </c>
       <c r="D6">
-        <v>-0.03718799093239444</v>
+        <v>-0.0109222196946139</v>
       </c>
       <c r="E6">
-        <v>0.01340780396406697</v>
+        <v>-0.01333670701618041</v>
       </c>
       <c r="F6">
-        <v>0.1374128706044476</v>
+        <v>-0.01460307130442003</v>
       </c>
       <c r="G6">
-        <v>0.1068648095174283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02511579206290575</v>
+      </c>
+      <c r="H6">
+        <v>0.1089898732571724</v>
+      </c>
+      <c r="I6">
+        <v>-0.1968640263154089</v>
+      </c>
+      <c r="J6">
+        <v>-0.3670928587140086</v>
+      </c>
+      <c r="K6">
+        <v>0.1423568452373923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09010627270581836</v>
+        <v>0.07557142534334173</v>
       </c>
       <c r="C7">
-        <v>0.04697098967129969</v>
+        <v>-0.06610280806227349</v>
       </c>
       <c r="D7">
-        <v>-0.04798040386504415</v>
+        <v>-0.02755416800532497</v>
       </c>
       <c r="E7">
-        <v>-0.02947205333803588</v>
+        <v>0.05038798837619297</v>
       </c>
       <c r="F7">
-        <v>0.02482573179736518</v>
+        <v>-0.02850940227335247</v>
       </c>
       <c r="G7">
-        <v>-0.0348118325750423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03756054327996499</v>
+      </c>
+      <c r="H7">
+        <v>0.01853045380449982</v>
+      </c>
+      <c r="I7">
+        <v>-0.02184880740220478</v>
+      </c>
+      <c r="J7">
+        <v>0.0346647366692376</v>
+      </c>
+      <c r="K7">
+        <v>-0.0951516954718217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04467469227138582</v>
+        <v>0.05325318166528403</v>
       </c>
       <c r="C8">
-        <v>-0.0202101307487208</v>
+        <v>-0.01524906004561979</v>
       </c>
       <c r="D8">
-        <v>-0.08409148008937614</v>
+        <v>-0.01293497332856776</v>
       </c>
       <c r="E8">
-        <v>-0.07998854228958753</v>
+        <v>0.02074820167627245</v>
       </c>
       <c r="F8">
-        <v>-0.02261065094480095</v>
+        <v>-0.004667045856582649</v>
       </c>
       <c r="G8">
-        <v>-0.1225166174037318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.1552170266434659</v>
+      </c>
+      <c r="H8">
+        <v>0.01465506543041341</v>
+      </c>
+      <c r="I8">
+        <v>0.02197881353537957</v>
+      </c>
+      <c r="J8">
+        <v>-0.03361383736705292</v>
+      </c>
+      <c r="K8">
+        <v>-0.03609757878188606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09180334377166681</v>
+        <v>0.08537157299001315</v>
       </c>
       <c r="C9">
-        <v>0.0415686984217117</v>
+        <v>-0.05559559234936738</v>
       </c>
       <c r="D9">
-        <v>-0.04016235838298934</v>
+        <v>-0.007702683601635849</v>
       </c>
       <c r="E9">
-        <v>-0.04520403649109739</v>
+        <v>0.02801350813850367</v>
       </c>
       <c r="F9">
-        <v>-0.0166031934171421</v>
+        <v>-0.006036918109267157</v>
       </c>
       <c r="G9">
-        <v>-0.06807596451441686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.1236394617066473</v>
+      </c>
+      <c r="H9">
+        <v>0.05945901056166937</v>
+      </c>
+      <c r="I9">
+        <v>-0.00560779722474764</v>
+      </c>
+      <c r="J9">
+        <v>-0.007914303324118788</v>
+      </c>
+      <c r="K9">
+        <v>0.009811989460137281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03817583518508137</v>
+        <v>0.09633779642196855</v>
       </c>
       <c r="C10">
-        <v>-0.1557926734905168</v>
+        <v>0.1649984640660179</v>
       </c>
       <c r="D10">
-        <v>-0.09024737855426962</v>
+        <v>0.04413584236586232</v>
       </c>
       <c r="E10">
-        <v>-0.02640150849681121</v>
+        <v>0.02912673365119261</v>
       </c>
       <c r="F10">
-        <v>0.04122684688118377</v>
+        <v>-0.04531463219658746</v>
       </c>
       <c r="G10">
-        <v>-0.01637035802609817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.007061417649082754</v>
+      </c>
+      <c r="H10">
+        <v>-0.000469185067913829</v>
+      </c>
+      <c r="I10">
+        <v>-0.03707625669507673</v>
+      </c>
+      <c r="J10">
+        <v>-0.02081478638246574</v>
+      </c>
+      <c r="K10">
+        <v>-0.05610652071252068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07606075358523309</v>
+        <v>0.07660448491602413</v>
       </c>
       <c r="C11">
-        <v>0.06272392068837442</v>
+        <v>-0.06652272564158609</v>
       </c>
       <c r="D11">
-        <v>-0.007726945538460302</v>
+        <v>-0.03171990427802306</v>
       </c>
       <c r="E11">
-        <v>-0.0001689701010598555</v>
+        <v>0.03312354653226532</v>
       </c>
       <c r="F11">
-        <v>-0.01921100177911841</v>
+        <v>0.0290248293957701</v>
       </c>
       <c r="G11">
-        <v>-0.1435713676876161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.133201656478229</v>
+      </c>
+      <c r="H11">
+        <v>0.01239908680991044</v>
+      </c>
+      <c r="I11">
+        <v>0.01051609425677183</v>
+      </c>
+      <c r="J11">
+        <v>0.1051801412381329</v>
+      </c>
+      <c r="K11">
+        <v>0.04549865423596944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07196070224891746</v>
+        <v>0.07197745358722334</v>
       </c>
       <c r="C12">
-        <v>0.04034293057538301</v>
+        <v>-0.0589989809016798</v>
       </c>
       <c r="D12">
-        <v>0.0011809042948123</v>
+        <v>-0.03400907310907205</v>
       </c>
       <c r="E12">
-        <v>-0.03556142270699218</v>
+        <v>0.04345309215068989</v>
       </c>
       <c r="F12">
-        <v>-2.349089685306645e-05</v>
+        <v>0.0286375424090856</v>
       </c>
       <c r="G12">
-        <v>-0.1366898549909981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.1446074674624278</v>
+      </c>
+      <c r="H12">
+        <v>0.003890973559681224</v>
+      </c>
+      <c r="I12">
+        <v>-0.01271251513399183</v>
+      </c>
+      <c r="J12">
+        <v>0.09664218181310599</v>
+      </c>
+      <c r="K12">
+        <v>0.03413058744848554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0645544135166423</v>
+        <v>0.04151990367697669</v>
       </c>
       <c r="C13">
-        <v>0.005061626988106127</v>
+        <v>-0.0273064101946719</v>
       </c>
       <c r="D13">
-        <v>-0.01121223786945924</v>
+        <v>-0.01484239850094379</v>
       </c>
       <c r="E13">
-        <v>-0.03150495722130447</v>
+        <v>0.01260628661227792</v>
       </c>
       <c r="F13">
-        <v>-0.04244830966461484</v>
+        <v>-0.02059744020504549</v>
       </c>
       <c r="G13">
-        <v>-0.06713843241296456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05541992754192317</v>
+      </c>
+      <c r="H13">
+        <v>0.02260388269955496</v>
+      </c>
+      <c r="I13">
+        <v>-0.03222769011742323</v>
+      </c>
+      <c r="J13">
+        <v>-0.0261741117599427</v>
+      </c>
+      <c r="K13">
+        <v>-0.0433093427366176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05347593355343248</v>
+        <v>0.0446914319875984</v>
       </c>
       <c r="C14">
-        <v>0.004998211679025244</v>
+        <v>-0.02162547271080921</v>
       </c>
       <c r="D14">
-        <v>-0.03268526973312806</v>
+        <v>-0.0003141082038708088</v>
       </c>
       <c r="E14">
-        <v>-0.02616093094751305</v>
+        <v>0.01567925095839637</v>
       </c>
       <c r="F14">
-        <v>-0.003341558917107261</v>
+        <v>0.01568175783340847</v>
       </c>
       <c r="G14">
-        <v>-0.0686139789519654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.06697946677638714</v>
+      </c>
+      <c r="H14">
+        <v>-0.002604143895612399</v>
+      </c>
+      <c r="I14">
+        <v>0.01710896476136854</v>
+      </c>
+      <c r="J14">
+        <v>-0.04740850617692852</v>
+      </c>
+      <c r="K14">
+        <v>-0.04356731148536111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03607310612524833</v>
+        <v>0.02331094202023859</v>
       </c>
       <c r="C15">
-        <v>-0.00985474345802209</v>
+        <v>-0.009991393793214346</v>
       </c>
       <c r="D15">
-        <v>-0.01125816303383849</v>
+        <v>-0.003930401931362204</v>
       </c>
       <c r="E15">
-        <v>-0.009823389363106221</v>
+        <v>-0.01117857605573878</v>
       </c>
       <c r="F15">
-        <v>-0.01226080758280861</v>
+        <v>-0.04326381937942097</v>
       </c>
       <c r="G15">
-        <v>-0.03432965419683149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01777993226772245</v>
+      </c>
+      <c r="H15">
+        <v>0.02704166092181653</v>
+      </c>
+      <c r="I15">
+        <v>-0.02074196013678721</v>
+      </c>
+      <c r="J15">
+        <v>-0.04091098890714212</v>
+      </c>
+      <c r="K15">
+        <v>-0.04062702000390782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.07924080154291335</v>
+        <v>0.08090596106107677</v>
       </c>
       <c r="C16">
-        <v>0.07147815905753112</v>
+        <v>-0.06795827119921549</v>
       </c>
       <c r="D16">
-        <v>-0.01592143746311231</v>
+        <v>-0.04488631001089078</v>
       </c>
       <c r="E16">
-        <v>-0.03799032577310098</v>
+        <v>0.03911019241318014</v>
       </c>
       <c r="F16">
-        <v>-0.03653042635539944</v>
+        <v>0.02594468910700875</v>
       </c>
       <c r="G16">
-        <v>-0.108265309691502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1414488807958414</v>
+      </c>
+      <c r="H16">
+        <v>-0.004771672665980094</v>
+      </c>
+      <c r="I16">
+        <v>0.01072659575877201</v>
+      </c>
+      <c r="J16">
+        <v>0.1117175280105823</v>
+      </c>
+      <c r="K16">
+        <v>0.02454812469888604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05068492104134442</v>
+        <v>0.05038432413822265</v>
       </c>
       <c r="C20">
-        <v>0.01997077256570899</v>
+        <v>-0.03934603144146791</v>
       </c>
       <c r="D20">
-        <v>-0.0179748565249879</v>
+        <v>0.01371472084053556</v>
       </c>
       <c r="E20">
-        <v>-0.0260908767328254</v>
+        <v>0.01198039661190284</v>
       </c>
       <c r="F20">
-        <v>-0.01148124568943419</v>
+        <v>-0.017139327308993</v>
       </c>
       <c r="G20">
-        <v>-0.1037128430789901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.07599465252375243</v>
+      </c>
+      <c r="H20">
+        <v>-0.002035944876483297</v>
+      </c>
+      <c r="I20">
+        <v>-0.009014393525091542</v>
+      </c>
+      <c r="J20">
+        <v>-0.01420991623074995</v>
+      </c>
+      <c r="K20">
+        <v>-0.06361163778459797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02689687235093682</v>
+        <v>0.02825261370708748</v>
       </c>
       <c r="C21">
-        <v>0.03494505058818533</v>
+        <v>-0.02348566426613588</v>
       </c>
       <c r="D21">
-        <v>0.00255634946438537</v>
+        <v>0.02791929769422855</v>
       </c>
       <c r="E21">
-        <v>-0.01255697021471584</v>
+        <v>-0.01042970674311893</v>
       </c>
       <c r="F21">
-        <v>0.08799453622546094</v>
+        <v>0.009041028401870474</v>
       </c>
       <c r="G21">
-        <v>0.05185196587409793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.07761488351284565</v>
+      </c>
+      <c r="H21">
+        <v>0.02475893245059426</v>
+      </c>
+      <c r="I21">
+        <v>-0.08861918233456739</v>
+      </c>
+      <c r="J21">
+        <v>-0.009624434046409941</v>
+      </c>
+      <c r="K21">
+        <v>-0.1086411622325076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04456924897885197</v>
+        <v>0.04201633751086703</v>
       </c>
       <c r="C22">
-        <v>-0.0008976839299938881</v>
+        <v>-0.008288933589088245</v>
       </c>
       <c r="D22">
-        <v>0.00474181749825978</v>
+        <v>-0.1110448726810294</v>
       </c>
       <c r="E22">
-        <v>-0.5558780721735864</v>
+        <v>-0.152449678523697</v>
       </c>
       <c r="F22">
-        <v>-0.08637370683191771</v>
+        <v>-0.6257390586366</v>
       </c>
       <c r="G22">
-        <v>0.3221467793525269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.0005772303249907006</v>
+      </c>
+      <c r="H22">
+        <v>-0.1698625773225621</v>
+      </c>
+      <c r="I22">
+        <v>-0.02449085669468091</v>
+      </c>
+      <c r="J22">
+        <v>0.06723620010953697</v>
+      </c>
+      <c r="K22">
+        <v>0.05293376181987502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0445753267013967</v>
+        <v>0.04239042364504712</v>
       </c>
       <c r="C23">
-        <v>-0.0003119620995992001</v>
+        <v>-0.00883944369015573</v>
       </c>
       <c r="D23">
-        <v>0.003609807439445722</v>
+        <v>-0.1123990477977961</v>
       </c>
       <c r="E23">
-        <v>-0.5555701608019489</v>
+        <v>-0.1522818172540719</v>
       </c>
       <c r="F23">
-        <v>-0.08716522418130429</v>
+        <v>-0.6274894052306882</v>
       </c>
       <c r="G23">
-        <v>0.3236349127875163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.001445738472642</v>
+      </c>
+      <c r="H23">
+        <v>-0.168833294980472</v>
+      </c>
+      <c r="I23">
+        <v>-0.02314990926476115</v>
+      </c>
+      <c r="J23">
+        <v>0.06436715920127417</v>
+      </c>
+      <c r="K23">
+        <v>0.05572949524705098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08661725485411988</v>
+        <v>0.08379557382827386</v>
       </c>
       <c r="C24">
-        <v>0.04743680467019833</v>
+        <v>-0.06241672902846005</v>
       </c>
       <c r="D24">
-        <v>-0.01960723918438184</v>
+        <v>-0.02048710289167446</v>
       </c>
       <c r="E24">
-        <v>-0.04045533112998363</v>
+        <v>0.02814932260566948</v>
       </c>
       <c r="F24">
-        <v>-0.008427571456278324</v>
+        <v>0.02025695209416287</v>
       </c>
       <c r="G24">
-        <v>-0.1092873571029873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.138278001730696</v>
+      </c>
+      <c r="H24">
+        <v>-0.001375179166078385</v>
+      </c>
+      <c r="I24">
+        <v>0.005829875454316929</v>
+      </c>
+      <c r="J24">
+        <v>0.1113577778760994</v>
+      </c>
+      <c r="K24">
+        <v>0.05799946483721975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.075892913369142</v>
+        <v>0.08323444017035275</v>
       </c>
       <c r="C25">
-        <v>0.02027795212182201</v>
+        <v>-0.04712968426746635</v>
       </c>
       <c r="D25">
-        <v>-0.02504137261920332</v>
+        <v>-0.02401958212079251</v>
       </c>
       <c r="E25">
-        <v>-0.02824112036742512</v>
+        <v>0.04715035648836873</v>
       </c>
       <c r="F25">
-        <v>-0.001488269988901046</v>
+        <v>0.03200739830484829</v>
       </c>
       <c r="G25">
-        <v>-0.1053091169270903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.1372900708398467</v>
+      </c>
+      <c r="H25">
+        <v>-0.007041833055645617</v>
+      </c>
+      <c r="I25">
+        <v>0.0125740289460852</v>
+      </c>
+      <c r="J25">
+        <v>0.09106113358560979</v>
+      </c>
+      <c r="K25">
+        <v>0.03727773741567143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.04991815947323262</v>
+        <v>0.04445946055449524</v>
       </c>
       <c r="C26">
-        <v>0.02443287002030321</v>
+        <v>-0.01035343217960199</v>
       </c>
       <c r="D26">
-        <v>-0.03337377210239823</v>
+        <v>0.01034716709459024</v>
       </c>
       <c r="E26">
-        <v>-0.01574297976647599</v>
+        <v>-0.01053718348949639</v>
       </c>
       <c r="F26">
-        <v>-0.02425944193224354</v>
+        <v>-0.00902580942792785</v>
       </c>
       <c r="G26">
-        <v>-0.06172391233225539</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.05795314144232859</v>
+      </c>
+      <c r="H26">
+        <v>-0.0187211089973457</v>
+      </c>
+      <c r="I26">
+        <v>0.002051023555028407</v>
+      </c>
+      <c r="J26">
+        <v>-0.03290488838535753</v>
+      </c>
+      <c r="K26">
+        <v>-0.02638725574766008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06256620492757667</v>
+        <v>0.1204756034775663</v>
       </c>
       <c r="C28">
-        <v>-0.2925245890790641</v>
+        <v>0.3020244970467378</v>
       </c>
       <c r="D28">
-        <v>-0.06305668601837573</v>
+        <v>0.001117757430973913</v>
       </c>
       <c r="E28">
-        <v>0.03469161833436104</v>
+        <v>0.004899151397656114</v>
       </c>
       <c r="F28">
-        <v>0.04455375645613019</v>
+        <v>0.008349504386226598</v>
       </c>
       <c r="G28">
-        <v>0.02203807799816369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01877218577969777</v>
+      </c>
+      <c r="H28">
+        <v>0.003040058622967622</v>
+      </c>
+      <c r="I28">
+        <v>-0.01231210985205655</v>
+      </c>
+      <c r="J28">
+        <v>0.003622965250526071</v>
+      </c>
+      <c r="K28">
+        <v>-0.02233662839786584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05713809523617303</v>
+        <v>0.04124265645917494</v>
       </c>
       <c r="C29">
-        <v>0.008049664019010937</v>
+        <v>-0.02259161296346779</v>
       </c>
       <c r="D29">
-        <v>-0.02431349413052657</v>
+        <v>-0.01217216480017318</v>
       </c>
       <c r="E29">
-        <v>-0.04604997552707115</v>
+        <v>0.03961788971916146</v>
       </c>
       <c r="F29">
-        <v>-0.03664277192888116</v>
+        <v>-0.004595993252196777</v>
       </c>
       <c r="G29">
-        <v>-0.04754802766764637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.08828190224662748</v>
+      </c>
+      <c r="H29">
+        <v>-0.03573761287946252</v>
+      </c>
+      <c r="I29">
+        <v>-0.005241522328842144</v>
+      </c>
+      <c r="J29">
+        <v>-0.03970800773950621</v>
+      </c>
+      <c r="K29">
+        <v>-0.05833794728651052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1171174417808443</v>
+        <v>0.1050391982551105</v>
       </c>
       <c r="C30">
-        <v>-0.01530634849934289</v>
+        <v>-0.05115385555387245</v>
       </c>
       <c r="D30">
-        <v>-0.07917214105708059</v>
+        <v>-0.05634843085858864</v>
       </c>
       <c r="E30">
-        <v>-0.2024244369313896</v>
+        <v>0.009607750987073655</v>
       </c>
       <c r="F30">
-        <v>0.04748036798291028</v>
+        <v>0.01331871993928465</v>
       </c>
       <c r="G30">
-        <v>-0.1349926257369158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.2167838961513023</v>
+      </c>
+      <c r="H30">
+        <v>-0.02998092298227725</v>
+      </c>
+      <c r="I30">
+        <v>-0.1590463239483286</v>
+      </c>
+      <c r="J30">
+        <v>0.08056955821510664</v>
+      </c>
+      <c r="K30">
+        <v>0.08263832827854478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05621230475344823</v>
+        <v>0.03892363329269584</v>
       </c>
       <c r="C31">
-        <v>0.01772721413389412</v>
+        <v>-0.03905741143504773</v>
       </c>
       <c r="D31">
-        <v>0.00997252409174249</v>
+        <v>-0.006726116406286645</v>
       </c>
       <c r="E31">
-        <v>-0.009026229767585959</v>
+        <v>0.006669325203825555</v>
       </c>
       <c r="F31">
-        <v>-0.02536625203865295</v>
+        <v>-0.004918430542729134</v>
       </c>
       <c r="G31">
-        <v>-0.007348670289082784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02486792147388175</v>
+      </c>
+      <c r="H31">
+        <v>-0.002405730717056155</v>
+      </c>
+      <c r="I31">
+        <v>0.03367207873969508</v>
+      </c>
+      <c r="J31">
+        <v>-0.02141363456145706</v>
+      </c>
+      <c r="K31">
+        <v>0.001501956925414744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03909315864797237</v>
+        <v>0.05150849694755244</v>
       </c>
       <c r="C32">
-        <v>-0.01982426477034648</v>
+        <v>-0.003092483623735153</v>
       </c>
       <c r="D32">
-        <v>-0.007516840146678805</v>
+        <v>0.01695716655067343</v>
       </c>
       <c r="E32">
-        <v>-0.08148503362671333</v>
+        <v>-0.03488412338776679</v>
       </c>
       <c r="F32">
-        <v>-0.07297994007343893</v>
+        <v>0.02889089416481462</v>
       </c>
       <c r="G32">
-        <v>-0.05735490853506756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06609174770290911</v>
+      </c>
+      <c r="H32">
+        <v>0.03284017576333586</v>
+      </c>
+      <c r="I32">
+        <v>0.01948753813950579</v>
+      </c>
+      <c r="J32">
+        <v>-0.01270191106689386</v>
+      </c>
+      <c r="K32">
+        <v>-0.01621397602593062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1120935591511404</v>
+        <v>0.09602784370208503</v>
       </c>
       <c r="C33">
-        <v>0.01816626663336451</v>
+        <v>-0.04789372297105919</v>
       </c>
       <c r="D33">
-        <v>0.008267806798332587</v>
+        <v>-0.05696372367817811</v>
       </c>
       <c r="E33">
-        <v>-0.008216394572667105</v>
+        <v>0.03461910497329151</v>
       </c>
       <c r="F33">
-        <v>-0.05047607320755211</v>
+        <v>0.02054315651845291</v>
       </c>
       <c r="G33">
-        <v>-0.05594620448455639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06795586057990675</v>
+      </c>
+      <c r="H33">
+        <v>0.01008319561792242</v>
+      </c>
+      <c r="I33">
+        <v>0.01881177639789267</v>
+      </c>
+      <c r="J33">
+        <v>0.01200019384798456</v>
+      </c>
+      <c r="K33">
+        <v>0.02329172175105663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06606039169462716</v>
+        <v>0.06902555045807625</v>
       </c>
       <c r="C34">
-        <v>0.05238459986191685</v>
+        <v>-0.0500924916083436</v>
       </c>
       <c r="D34">
-        <v>-0.00540997829221015</v>
+        <v>-0.02641461542622111</v>
       </c>
       <c r="E34">
-        <v>-0.0215377685548783</v>
+        <v>0.03299835494103619</v>
       </c>
       <c r="F34">
-        <v>-0.01710363598482116</v>
+        <v>0.02751516585103082</v>
       </c>
       <c r="G34">
-        <v>-0.09089112213912132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.1294322433157723</v>
+      </c>
+      <c r="H34">
+        <v>-0.002746642814431329</v>
+      </c>
+      <c r="I34">
+        <v>0.005301773767709271</v>
+      </c>
+      <c r="J34">
+        <v>0.08611347994057678</v>
+      </c>
+      <c r="K34">
+        <v>-8.999454122091922e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04358107017745632</v>
+        <v>0.02344596755023603</v>
       </c>
       <c r="C35">
-        <v>0.008521605604859385</v>
+        <v>-0.01783754547083454</v>
       </c>
       <c r="D35">
-        <v>0.01820516712707389</v>
+        <v>-0.01296883723573067</v>
       </c>
       <c r="E35">
-        <v>-0.006809581523068196</v>
+        <v>0.01490310127209156</v>
       </c>
       <c r="F35">
-        <v>0.03483225763487673</v>
+        <v>0.006871517034196591</v>
       </c>
       <c r="G35">
-        <v>-0.04446343893798846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.0400691054367039</v>
+      </c>
+      <c r="H35">
+        <v>-0.01577881400319104</v>
+      </c>
+      <c r="I35">
+        <v>-0.02471935757723404</v>
+      </c>
+      <c r="J35">
+        <v>0.01992658904154493</v>
+      </c>
+      <c r="K35">
+        <v>-0.05640641271194141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03618297806006816</v>
+        <v>0.0289261348278737</v>
       </c>
       <c r="C36">
-        <v>0.002132919108980526</v>
+        <v>-0.01294407453551091</v>
       </c>
       <c r="D36">
-        <v>-0.02444701838668364</v>
+        <v>-0.001991275595298574</v>
       </c>
       <c r="E36">
-        <v>-0.03420098478148201</v>
+        <v>0.003981785455345088</v>
       </c>
       <c r="F36">
-        <v>-0.001840767489819384</v>
+        <v>-0.005984488211664482</v>
       </c>
       <c r="G36">
-        <v>-0.06285246821117983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.07278354322141938</v>
+      </c>
+      <c r="H36">
+        <v>0.002936807076776358</v>
+      </c>
+      <c r="I36">
+        <v>-0.008627906566909824</v>
+      </c>
+      <c r="J36">
+        <v>-0.02847631404151837</v>
+      </c>
+      <c r="K36">
+        <v>0.005141165689849229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05126337660254296</v>
+        <v>0.02223048247937534</v>
       </c>
       <c r="C38">
-        <v>0.01940439598584468</v>
+        <v>-0.02871853486709663</v>
       </c>
       <c r="D38">
-        <v>2.324865816096787e-05</v>
+        <v>-0.01359009494689126</v>
       </c>
       <c r="E38">
-        <v>-0.01555697885812875</v>
+        <v>0.01224698447223507</v>
       </c>
       <c r="F38">
-        <v>0.003312591641758653</v>
+        <v>-0.02332135783370766</v>
       </c>
       <c r="G38">
-        <v>-0.05004997477958156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.04768644261410589</v>
+      </c>
+      <c r="H38">
+        <v>-0.02328460794797117</v>
+      </c>
+      <c r="I38">
+        <v>-0.02064369348388093</v>
+      </c>
+      <c r="J38">
+        <v>-0.01125126567510114</v>
+      </c>
+      <c r="K38">
+        <v>0.01164189705771414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1072420038238339</v>
+        <v>0.1127440512970955</v>
       </c>
       <c r="C39">
-        <v>0.04243757785389051</v>
+        <v>-0.07942715917311624</v>
       </c>
       <c r="D39">
-        <v>-0.002913361622182239</v>
+        <v>-0.05482521433042893</v>
       </c>
       <c r="E39">
-        <v>-0.06962051643119713</v>
+        <v>0.06820385719353347</v>
       </c>
       <c r="F39">
-        <v>-0.006746707202236334</v>
+        <v>0.09575180191315964</v>
       </c>
       <c r="G39">
-        <v>-0.1530393819919594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1650037017716683</v>
+      </c>
+      <c r="H39">
+        <v>-0.05408617813338246</v>
+      </c>
+      <c r="I39">
+        <v>-0.004046731205979494</v>
+      </c>
+      <c r="J39">
+        <v>0.1650138007916878</v>
+      </c>
+      <c r="K39">
+        <v>0.03001974309249579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05421747231456359</v>
+        <v>0.02436889877126561</v>
       </c>
       <c r="C40">
-        <v>0.03388152246643281</v>
+        <v>-0.05745352554514342</v>
       </c>
       <c r="D40">
-        <v>0.02897409797821526</v>
+        <v>-0.00696925701640214</v>
       </c>
       <c r="E40">
-        <v>-0.1061092298488697</v>
+        <v>-0.006069990397511942</v>
       </c>
       <c r="F40">
-        <v>0.0221211599980886</v>
+        <v>-0.04950920829165357</v>
       </c>
       <c r="G40">
-        <v>-0.2537168447892844</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1149991942355595</v>
+      </c>
+      <c r="H40">
+        <v>0.03248989154356425</v>
+      </c>
+      <c r="I40">
+        <v>-0.08053072792792315</v>
+      </c>
+      <c r="J40">
+        <v>-0.009679797781875055</v>
+      </c>
+      <c r="K40">
+        <v>-0.002665293861889951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04811313124542125</v>
+        <v>0.03526024691209188</v>
       </c>
       <c r="C41">
-        <v>0.03068500907960822</v>
+        <v>-0.0279631643284594</v>
       </c>
       <c r="D41">
-        <v>1.794778552129554e-06</v>
+        <v>0.00273869710517983</v>
       </c>
       <c r="E41">
-        <v>0.01234753626950927</v>
+        <v>0.01673591218282574</v>
       </c>
       <c r="F41">
-        <v>-0.01648226015396426</v>
+        <v>0.01108706044566255</v>
       </c>
       <c r="G41">
-        <v>-0.07311786893051392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01691192876963936</v>
+      </c>
+      <c r="H41">
+        <v>-0.002897038701460705</v>
+      </c>
+      <c r="I41">
+        <v>0.00125408985951411</v>
+      </c>
+      <c r="J41">
+        <v>0.001068425814437748</v>
+      </c>
+      <c r="K41">
+        <v>-0.01278225772622479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07366411575913177</v>
+        <v>0.04965956032855255</v>
       </c>
       <c r="C43">
-        <v>0.02629042320578273</v>
+        <v>-0.02818122411359852</v>
       </c>
       <c r="D43">
-        <v>-0.02220085776459011</v>
+        <v>-0.02114423564093981</v>
       </c>
       <c r="E43">
-        <v>-0.02186355707716255</v>
+        <v>0.02007048672122645</v>
       </c>
       <c r="F43">
-        <v>-0.01387257298720061</v>
+        <v>-0.01586887711168354</v>
       </c>
       <c r="G43">
-        <v>-0.01629548379328328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01489084253187324</v>
+      </c>
+      <c r="H43">
+        <v>-0.02044674014895131</v>
+      </c>
+      <c r="I43">
+        <v>-0.001826337311507579</v>
+      </c>
+      <c r="J43">
+        <v>0.00376232293979095</v>
+      </c>
+      <c r="K43">
+        <v>0.01548838458811578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.06562235307768412</v>
+        <v>0.1031562159594523</v>
       </c>
       <c r="C44">
-        <v>0.02581535359295099</v>
+        <v>-0.0847559498895898</v>
       </c>
       <c r="D44">
-        <v>-0.1020350692554563</v>
+        <v>-0.05739034693807828</v>
       </c>
       <c r="E44">
-        <v>-0.07036102174375503</v>
+        <v>0.08344550615737832</v>
       </c>
       <c r="F44">
-        <v>-0.02345868267733851</v>
+        <v>-0.106182642214012</v>
       </c>
       <c r="G44">
-        <v>-0.1303922718710819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2454686035350805</v>
+      </c>
+      <c r="H44">
+        <v>-0.01642295830365912</v>
+      </c>
+      <c r="I44">
+        <v>-0.07204002221720933</v>
+      </c>
+      <c r="J44">
+        <v>-0.0622708475405922</v>
+      </c>
+      <c r="K44">
+        <v>-0.1712121988572915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04547469455351244</v>
+        <v>0.03091890263885397</v>
       </c>
       <c r="C46">
-        <v>0.03834137859387211</v>
+        <v>-0.02171831089343382</v>
       </c>
       <c r="D46">
-        <v>-0.02418317708190943</v>
+        <v>-0.01795921290097869</v>
       </c>
       <c r="E46">
-        <v>-0.05282846123067058</v>
+        <v>0.02824445067521445</v>
       </c>
       <c r="F46">
-        <v>-0.007458251845055937</v>
+        <v>-0.04027691965320054</v>
       </c>
       <c r="G46">
-        <v>-0.04505102885512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04537763167154352</v>
+      </c>
+      <c r="H46">
+        <v>-0.02299333207553862</v>
+      </c>
+      <c r="I46">
+        <v>-0.02046769856356019</v>
+      </c>
+      <c r="J46">
+        <v>-0.01250550650175174</v>
+      </c>
+      <c r="K46">
+        <v>-0.07178601649253952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04768176989747683</v>
+        <v>0.04135867129196749</v>
       </c>
       <c r="C47">
-        <v>0.001876663085535156</v>
+        <v>-0.02267607260292645</v>
       </c>
       <c r="D47">
-        <v>-0.01133592327951592</v>
+        <v>-0.01225809516357636</v>
       </c>
       <c r="E47">
-        <v>-0.06291605387041696</v>
+        <v>0.007511465630957465</v>
       </c>
       <c r="F47">
-        <v>0.009156429033684476</v>
+        <v>-0.01991179869850947</v>
       </c>
       <c r="G47">
-        <v>0.003300938981798316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03576338240963308</v>
+      </c>
+      <c r="H47">
+        <v>0.009445402629813261</v>
+      </c>
+      <c r="I47">
+        <v>-0.01115240841385551</v>
+      </c>
+      <c r="J47">
+        <v>-0.03588402306621038</v>
+      </c>
+      <c r="K47">
+        <v>-0.02812913421841545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04307165790286386</v>
+        <v>0.04295080352846561</v>
       </c>
       <c r="C48">
-        <v>-0.0008969820964758022</v>
+        <v>-0.01259431104596932</v>
       </c>
       <c r="D48">
-        <v>0.002982840140794658</v>
+        <v>-0.003229365258026604</v>
       </c>
       <c r="E48">
-        <v>-0.03577635272246106</v>
+        <v>0.009381099119175547</v>
       </c>
       <c r="F48">
-        <v>-0.002644860797124339</v>
+        <v>-0.007685238810703182</v>
       </c>
       <c r="G48">
-        <v>-0.04625848716041288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.06718046297880881</v>
+      </c>
+      <c r="H48">
+        <v>0.01079595046485759</v>
+      </c>
+      <c r="I48">
+        <v>-0.02133828864422301</v>
+      </c>
+      <c r="J48">
+        <v>0.01030090265259347</v>
+      </c>
+      <c r="K48">
+        <v>-0.016912993490437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2347485733678788</v>
+        <v>0.2268147596537272</v>
       </c>
       <c r="C49">
-        <v>0.0920520503127475</v>
+        <v>-0.04704956207954409</v>
       </c>
       <c r="D49">
-        <v>-0.03614825984568289</v>
+        <v>0.0813606524697858</v>
       </c>
       <c r="E49">
-        <v>0.09968764177725968</v>
+        <v>0.03251803763182146</v>
       </c>
       <c r="F49">
-        <v>0.1707566261198327</v>
+        <v>0.01536293649517323</v>
       </c>
       <c r="G49">
-        <v>0.08815082327803661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.212817663437328</v>
+      </c>
+      <c r="H49">
+        <v>0.01589250989456334</v>
+      </c>
+      <c r="I49">
+        <v>-0.1756905341461345</v>
+      </c>
+      <c r="J49">
+        <v>0.2286114302979071</v>
+      </c>
+      <c r="K49">
+        <v>0.2427097747448099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05416952554512311</v>
+        <v>0.04441123022108308</v>
       </c>
       <c r="C50">
-        <v>0.01623275307030228</v>
+        <v>-0.02870661350768426</v>
       </c>
       <c r="D50">
-        <v>0.007600689858248652</v>
+        <v>0.0006515314429771799</v>
       </c>
       <c r="E50">
-        <v>-0.03000117067916764</v>
+        <v>-0.0001337244653653388</v>
       </c>
       <c r="F50">
-        <v>-0.04925686675539637</v>
+        <v>0.001822372324821358</v>
       </c>
       <c r="G50">
-        <v>0.001077563311871132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.05248960866825399</v>
+      </c>
+      <c r="H50">
+        <v>-0.01092055228432465</v>
+      </c>
+      <c r="I50">
+        <v>0.02325584978523889</v>
+      </c>
+      <c r="J50">
+        <v>-0.03139859445836007</v>
+      </c>
+      <c r="K50">
+        <v>0.01670574069681014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03628116322147604</v>
+        <v>0.02143328720641324</v>
       </c>
       <c r="C51">
-        <v>0.01345819872003657</v>
+        <v>0.002128729403526518</v>
       </c>
       <c r="D51">
-        <v>-0.01423599216205711</v>
+        <v>-0.01039654711002157</v>
       </c>
       <c r="E51">
-        <v>0.008909678314275075</v>
+        <v>0.02377146586983498</v>
       </c>
       <c r="F51">
-        <v>0.002012539907569973</v>
+        <v>-0.008285512942522362</v>
       </c>
       <c r="G51">
-        <v>-0.004742958792148666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02892964224294977</v>
+      </c>
+      <c r="H51">
+        <v>0.01802954243354922</v>
+      </c>
+      <c r="I51">
+        <v>-0.0151746337422319</v>
+      </c>
+      <c r="J51">
+        <v>0.03576872385174968</v>
+      </c>
+      <c r="K51">
+        <v>0.03543406136071765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.06832474899588654</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.0373340935602097</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01725948955622453</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.003443187549067351</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01939967728350966</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.01662206921624015</v>
+      </c>
+      <c r="H52">
+        <v>-0.08976724319228301</v>
+      </c>
+      <c r="I52">
+        <v>0.1130196505592256</v>
+      </c>
+      <c r="J52">
+        <v>-0.02469372158857522</v>
+      </c>
+      <c r="K52">
+        <v>-0.02734381462955769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1591572500378022</v>
+        <v>0.1623077940273188</v>
       </c>
       <c r="C53">
-        <v>-0.001226117492113746</v>
+        <v>-0.03691722976058609</v>
       </c>
       <c r="D53">
-        <v>-0.00815722407195452</v>
+        <v>0.007105184688981352</v>
       </c>
       <c r="E53">
-        <v>0.04983004718973065</v>
+        <v>0.02482932419470711</v>
       </c>
       <c r="F53">
-        <v>-0.2410340524338023</v>
+        <v>-0.003253699926167325</v>
       </c>
       <c r="G53">
-        <v>0.06364823814890122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08842139040577274</v>
+      </c>
+      <c r="H53">
+        <v>-0.1327577077722104</v>
+      </c>
+      <c r="I53">
+        <v>0.2488184155396444</v>
+      </c>
+      <c r="J53">
+        <v>-0.1147729148060024</v>
+      </c>
+      <c r="K53">
+        <v>0.03023090656540088</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0537423911471907</v>
+        <v>0.05601286654589524</v>
       </c>
       <c r="C54">
-        <v>0.003916058321563986</v>
+        <v>-0.0378900255048587</v>
       </c>
       <c r="D54">
-        <v>-0.02781101788172333</v>
+        <v>-0.00387663623816993</v>
       </c>
       <c r="E54">
-        <v>-0.0480290080224549</v>
+        <v>0.01212496746880114</v>
       </c>
       <c r="F54">
-        <v>-0.01668548948152602</v>
+        <v>-0.02399532076881352</v>
       </c>
       <c r="G54">
-        <v>-0.07475915889695628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.1145284125752672</v>
+      </c>
+      <c r="H54">
+        <v>0.06083251284571567</v>
+      </c>
+      <c r="I54">
+        <v>-0.003006731888294853</v>
+      </c>
+      <c r="J54">
+        <v>-0.0848277006057102</v>
+      </c>
+      <c r="K54">
+        <v>-0.09834262147426336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.0950807884487876</v>
+        <v>0.0890054826040815</v>
       </c>
       <c r="C55">
-        <v>0.01199990306633038</v>
+        <v>-0.03121106359918574</v>
       </c>
       <c r="D55">
-        <v>-0.01679866097800918</v>
+        <v>-0.04337696310940559</v>
       </c>
       <c r="E55">
-        <v>-0.002937075771691866</v>
+        <v>0.04980431669267191</v>
       </c>
       <c r="F55">
-        <v>-0.180438561773746</v>
+        <v>0.0123640024539451</v>
       </c>
       <c r="G55">
-        <v>0.01267671043531927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0240358033369065</v>
+      </c>
+      <c r="H55">
+        <v>-0.04359187556224339</v>
+      </c>
+      <c r="I55">
+        <v>0.1608925386750344</v>
+      </c>
+      <c r="J55">
+        <v>-0.05008137986521419</v>
+      </c>
+      <c r="K55">
+        <v>0.006057623319420413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1622425169596369</v>
+        <v>0.1593494578033894</v>
       </c>
       <c r="C56">
-        <v>-0.00324284474670753</v>
+        <v>-0.04999165703179419</v>
       </c>
       <c r="D56">
-        <v>-0.006317233586168804</v>
+        <v>-0.01223789552874163</v>
       </c>
       <c r="E56">
-        <v>0.05204929792186653</v>
+        <v>0.06111583430078242</v>
       </c>
       <c r="F56">
-        <v>-0.2405295789557809</v>
+        <v>0.014203332482623</v>
       </c>
       <c r="G56">
-        <v>0.07206731548861008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04635141474437588</v>
+      </c>
+      <c r="H56">
+        <v>-0.1179213290165918</v>
+      </c>
+      <c r="I56">
+        <v>0.2069231463293892</v>
+      </c>
+      <c r="J56">
+        <v>-0.08251629425557387</v>
+      </c>
+      <c r="K56">
+        <v>0.04218565214091215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03669144104459586</v>
+        <v>0.04427337122743451</v>
       </c>
       <c r="C58">
-        <v>0.05190062921960806</v>
+        <v>-0.04560242086541264</v>
       </c>
       <c r="D58">
-        <v>0.0270922905910604</v>
+        <v>-0.0255205401487878</v>
       </c>
       <c r="E58">
-        <v>-0.2788999883793183</v>
+        <v>-0.03111690970049751</v>
       </c>
       <c r="F58">
-        <v>0.4649211433143893</v>
+        <v>-0.09398169706502989</v>
       </c>
       <c r="G58">
-        <v>-0.08673737290380877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.06203906364305482</v>
+      </c>
+      <c r="H58">
+        <v>-0.04847152756578349</v>
+      </c>
+      <c r="I58">
+        <v>-0.2086257008799211</v>
+      </c>
+      <c r="J58">
+        <v>0.1120402196901719</v>
+      </c>
+      <c r="K58">
+        <v>-0.1731555454380459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1606983680265992</v>
+        <v>0.1918791185652902</v>
       </c>
       <c r="C59">
-        <v>-0.3865572950784773</v>
+        <v>0.3030854728070715</v>
       </c>
       <c r="D59">
-        <v>-0.08742793830256425</v>
+        <v>-0.008640441535652344</v>
       </c>
       <c r="E59">
-        <v>0.07519816115002116</v>
+        <v>0.04299465865683525</v>
       </c>
       <c r="F59">
-        <v>-0.05277560809942488</v>
+        <v>0.0350883703916537</v>
       </c>
       <c r="G59">
-        <v>-0.02905674052296873</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009620086942513949</v>
+      </c>
+      <c r="H59">
+        <v>0.06672690010137754</v>
+      </c>
+      <c r="I59">
+        <v>0.08431278787809091</v>
+      </c>
+      <c r="J59">
+        <v>0.0001302737927447726</v>
+      </c>
+      <c r="K59">
+        <v>0.002654324227670934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.26536948401821</v>
+        <v>0.250640142971282</v>
       </c>
       <c r="C60">
-        <v>0.06872571966847378</v>
+        <v>-0.1027196634578878</v>
       </c>
       <c r="D60">
-        <v>-0.07065373846812401</v>
+        <v>0.09093820086631843</v>
       </c>
       <c r="E60">
-        <v>0.08386164121606757</v>
+        <v>0.05931691952219541</v>
       </c>
       <c r="F60">
-        <v>0.07388128722474605</v>
+        <v>0.01269785509995755</v>
       </c>
       <c r="G60">
-        <v>0.1960032565841048</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1162235056966731</v>
+      </c>
+      <c r="H60">
+        <v>-0.0292213866156889</v>
+      </c>
+      <c r="I60">
+        <v>-0.1074803512891652</v>
+      </c>
+      <c r="J60">
+        <v>-0.03266138179349657</v>
+      </c>
+      <c r="K60">
+        <v>0.2205215025409125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09300740548741278</v>
+        <v>0.1056598278781255</v>
       </c>
       <c r="C61">
-        <v>0.01854817347101057</v>
+        <v>-0.04393601009271802</v>
       </c>
       <c r="D61">
-        <v>-0.004720290939825966</v>
+        <v>-0.03320768580917754</v>
       </c>
       <c r="E61">
-        <v>-0.02522009310705571</v>
+        <v>0.06878794478505217</v>
       </c>
       <c r="F61">
-        <v>-0.02153527996552009</v>
+        <v>0.06362086535983126</v>
       </c>
       <c r="G61">
-        <v>-0.06276545769003869</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.142782497893169</v>
+      </c>
+      <c r="H61">
+        <v>-0.0504540508561334</v>
+      </c>
+      <c r="I61">
+        <v>0.05280131330214666</v>
+      </c>
+      <c r="J61">
+        <v>0.08936307466496678</v>
+      </c>
+      <c r="K61">
+        <v>-0.01074714236818266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1466976348512957</v>
+        <v>0.1509103918172658</v>
       </c>
       <c r="C62">
-        <v>0.0265999099451742</v>
+        <v>-0.05023671919065411</v>
       </c>
       <c r="D62">
-        <v>0.03897713118002767</v>
+        <v>-0.01197662481771546</v>
       </c>
       <c r="E62">
-        <v>0.1192642908626337</v>
+        <v>0.03157568506117396</v>
       </c>
       <c r="F62">
-        <v>-0.2412141408201565</v>
+        <v>0.02146380465431031</v>
       </c>
       <c r="G62">
-        <v>0.02420980059701355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.06978466472354872</v>
+      </c>
+      <c r="H62">
+        <v>-0.1083102939810125</v>
+      </c>
+      <c r="I62">
+        <v>0.2049158711903635</v>
+      </c>
+      <c r="J62">
+        <v>-0.1063867249614355</v>
+      </c>
+      <c r="K62">
+        <v>0.01522895902515561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04292709746870643</v>
+        <v>0.04246209416918788</v>
       </c>
       <c r="C63">
-        <v>0.01341253537206124</v>
+        <v>-0.01552055509429085</v>
       </c>
       <c r="D63">
-        <v>0.004511646700538943</v>
+        <v>-0.01813850815568326</v>
       </c>
       <c r="E63">
-        <v>-0.004702137952931497</v>
+        <v>-0.01009023009503058</v>
       </c>
       <c r="F63">
-        <v>-0.01458485568918238</v>
+        <v>0.01103630392630433</v>
       </c>
       <c r="G63">
-        <v>-0.03934840062191244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0651278686447803</v>
+      </c>
+      <c r="H63">
+        <v>0.01044751743955316</v>
+      </c>
+      <c r="I63">
+        <v>-0.01962167666166062</v>
+      </c>
+      <c r="J63">
+        <v>0.002898372101997679</v>
+      </c>
+      <c r="K63">
+        <v>0.01217998994642011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1037016693409406</v>
+        <v>0.09912927931395449</v>
       </c>
       <c r="C64">
-        <v>0.01255290745316417</v>
+        <v>-0.03909007986653392</v>
       </c>
       <c r="D64">
-        <v>-0.04213658158102611</v>
+        <v>0.009198569035826961</v>
       </c>
       <c r="E64">
-        <v>-0.03752384785672681</v>
+        <v>0.04778209391881717</v>
       </c>
       <c r="F64">
-        <v>0.02776014646821596</v>
+        <v>-0.02189213627417549</v>
       </c>
       <c r="G64">
-        <v>-0.05632942327192676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.0923832631702058</v>
+      </c>
+      <c r="H64">
+        <v>6.009111014555354e-05</v>
+      </c>
+      <c r="I64">
+        <v>-0.07890650806908713</v>
+      </c>
+      <c r="J64">
+        <v>0.01680054001417712</v>
+      </c>
+      <c r="K64">
+        <v>0.05687358760337873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1218333784064971</v>
+        <v>0.1181572486889472</v>
       </c>
       <c r="C65">
-        <v>0.02900426121466081</v>
+        <v>-0.02831987816106836</v>
       </c>
       <c r="D65">
-        <v>-0.0260660355898218</v>
+        <v>0.004666186942216686</v>
       </c>
       <c r="E65">
-        <v>-0.05109749487875755</v>
+        <v>-0.03674661528592519</v>
       </c>
       <c r="F65">
-        <v>0.1876036172388363</v>
+        <v>0.009613913317851476</v>
       </c>
       <c r="G65">
-        <v>0.1632957572018435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0239021679145658</v>
+      </c>
+      <c r="H65">
+        <v>0.06684058968694498</v>
+      </c>
+      <c r="I65">
+        <v>-0.2841684026245687</v>
+      </c>
+      <c r="J65">
+        <v>-0.5103512128460213</v>
+      </c>
+      <c r="K65">
+        <v>0.2287494874197371</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1590263814434755</v>
+        <v>0.1401948151953248</v>
       </c>
       <c r="C66">
-        <v>0.05104903627939623</v>
+        <v>-0.1033428936483642</v>
       </c>
       <c r="D66">
-        <v>0.01926068021437299</v>
+        <v>-0.0583865418115758</v>
       </c>
       <c r="E66">
-        <v>-0.02436246907914652</v>
+        <v>0.07000186518571572</v>
       </c>
       <c r="F66">
-        <v>-0.03547221962842146</v>
+        <v>0.1115169901877719</v>
       </c>
       <c r="G66">
-        <v>-0.298788669884969</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1534556759646403</v>
+      </c>
+      <c r="H66">
+        <v>-0.0891013717040802</v>
+      </c>
+      <c r="I66">
+        <v>0.03379675197263402</v>
+      </c>
+      <c r="J66">
+        <v>0.194401324785251</v>
+      </c>
+      <c r="K66">
+        <v>0.09880281072305064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1014508711410638</v>
+        <v>0.0683231292274262</v>
       </c>
       <c r="C67">
-        <v>0.04058878695655301</v>
+        <v>-0.03811528022492617</v>
       </c>
       <c r="D67">
-        <v>-0.0178239591799635</v>
+        <v>-0.06551707374300925</v>
       </c>
       <c r="E67">
-        <v>0.009450704896800744</v>
+        <v>0.0489660946411287</v>
       </c>
       <c r="F67">
-        <v>-0.003691836375633798</v>
+        <v>-0.01910302765391047</v>
       </c>
       <c r="G67">
-        <v>-0.04950179570238178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.06762683882859533</v>
+      </c>
+      <c r="H67">
+        <v>0.01933264796940307</v>
+      </c>
+      <c r="I67">
+        <v>0.02328655134296301</v>
+      </c>
+      <c r="J67">
+        <v>0.02060766442611591</v>
+      </c>
+      <c r="K67">
+        <v>0.05388890729948316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04389625777480313</v>
+        <v>0.1012941042200225</v>
       </c>
       <c r="C68">
-        <v>-0.293853778736295</v>
+        <v>0.2793880565920627</v>
       </c>
       <c r="D68">
-        <v>-0.03835782315587551</v>
+        <v>-0.002874127228166</v>
       </c>
       <c r="E68">
-        <v>0.006199310690224429</v>
+        <v>-0.01098824785810118</v>
       </c>
       <c r="F68">
-        <v>0.007952090978190298</v>
+        <v>0.02144060940336498</v>
       </c>
       <c r="G68">
-        <v>0.02294722740212988</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.04597537247461485</v>
+      </c>
+      <c r="H68">
+        <v>7.775280005787718e-05</v>
+      </c>
+      <c r="I68">
+        <v>0.001711887815855102</v>
+      </c>
+      <c r="J68">
+        <v>-0.02387457809435462</v>
+      </c>
+      <c r="K68">
+        <v>0.004737768986826001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04680414149607637</v>
+        <v>0.03732569800291979</v>
       </c>
       <c r="C69">
-        <v>0.01604761203952237</v>
+        <v>0.000994456336254502</v>
       </c>
       <c r="D69">
-        <v>-0.009397386268240715</v>
+        <v>-0.02443299815376334</v>
       </c>
       <c r="E69">
-        <v>-0.000781048440467118</v>
+        <v>0.02484201799281643</v>
       </c>
       <c r="F69">
-        <v>-0.01989535966209946</v>
+        <v>-0.0100486049033238</v>
       </c>
       <c r="G69">
-        <v>-0.02766513845031785</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.006283598936734229</v>
+      </c>
+      <c r="H69">
+        <v>-0.01847225643421218</v>
+      </c>
+      <c r="I69">
+        <v>0.001678342930854159</v>
+      </c>
+      <c r="J69">
+        <v>-0.02999948802275512</v>
+      </c>
+      <c r="K69">
+        <v>0.007127786432635926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07568464863924719</v>
+        <v>0.04635349533219748</v>
       </c>
       <c r="C70">
-        <v>0.006532295413274837</v>
+        <v>-0.01100562036140267</v>
       </c>
       <c r="D70">
-        <v>-0.04026329126462051</v>
+        <v>-0.01528756205657091</v>
       </c>
       <c r="E70">
-        <v>0.0344684354242951</v>
+        <v>0.05337232138966064</v>
       </c>
       <c r="F70">
-        <v>0.08807702671586651</v>
+        <v>0.01714211199277907</v>
       </c>
       <c r="G70">
-        <v>-0.008282617163241697</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02477405219085895</v>
+      </c>
+      <c r="H70">
+        <v>0.02555940739878502</v>
+      </c>
+      <c r="I70">
+        <v>-0.09070135972273263</v>
+      </c>
+      <c r="J70">
+        <v>-0.09703581862299746</v>
+      </c>
+      <c r="K70">
+        <v>-0.1742436489971048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05135159346032526</v>
+        <v>0.1161322067115566</v>
       </c>
       <c r="C71">
-        <v>-0.2961824718040411</v>
+        <v>0.2919057933416614</v>
       </c>
       <c r="D71">
-        <v>-0.05794273686151123</v>
+        <v>0.009395007933418052</v>
       </c>
       <c r="E71">
-        <v>0.009989038081871012</v>
+        <v>0.009667730722906356</v>
       </c>
       <c r="F71">
-        <v>0.01287519811229953</v>
+        <v>0.003135427971344676</v>
       </c>
       <c r="G71">
-        <v>-0.01092591425219686</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.05413537487390098</v>
+      </c>
+      <c r="H71">
+        <v>-0.01977406662701054</v>
+      </c>
+      <c r="I71">
+        <v>0.003321057557204015</v>
+      </c>
+      <c r="J71">
+        <v>0.002506346941494057</v>
+      </c>
+      <c r="K71">
+        <v>0.03398111083133473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1503587957950261</v>
+        <v>0.1460040900479802</v>
       </c>
       <c r="C72">
-        <v>-0.04459316019546584</v>
+        <v>-0.01138335475468456</v>
       </c>
       <c r="D72">
-        <v>0.2359769169973243</v>
+        <v>-0.03803614002420085</v>
       </c>
       <c r="E72">
-        <v>0.0281222731985941</v>
+        <v>-0.0872976121623998</v>
       </c>
       <c r="F72">
-        <v>-0.03605674844538475</v>
+        <v>0.03570447917731374</v>
       </c>
       <c r="G72">
-        <v>-0.06177437599563228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.004584002384985914</v>
+      </c>
+      <c r="H72">
+        <v>-0.04821179551393653</v>
+      </c>
+      <c r="I72">
+        <v>0.02802357988041156</v>
+      </c>
+      <c r="J72">
+        <v>-0.1247708439650858</v>
+      </c>
+      <c r="K72">
+        <v>0.1053678575548611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2881297880926787</v>
+        <v>0.2369061911031079</v>
       </c>
       <c r="C73">
-        <v>0.1569697315011654</v>
+        <v>-0.1094347907437304</v>
       </c>
       <c r="D73">
-        <v>-0.05028087498564977</v>
+        <v>0.02866122538968777</v>
       </c>
       <c r="E73">
-        <v>0.1702786000879235</v>
+        <v>0.1656472574261368</v>
       </c>
       <c r="F73">
-        <v>0.2875942026661133</v>
+        <v>0.05782842777693156</v>
       </c>
       <c r="G73">
-        <v>0.2800567919548806</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4193227817127723</v>
+      </c>
+      <c r="H73">
+        <v>-0.06265463108066477</v>
+      </c>
+      <c r="I73">
+        <v>-0.3078566575541842</v>
+      </c>
+      <c r="J73">
+        <v>0.2887915921312613</v>
+      </c>
+      <c r="K73">
+        <v>0.184773930690567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09921343614058072</v>
+        <v>0.1142914047813647</v>
       </c>
       <c r="C74">
-        <v>0.03835360638201556</v>
+        <v>-0.0626504611267724</v>
       </c>
       <c r="D74">
-        <v>0.004821927649017144</v>
+        <v>-0.03455857670085825</v>
       </c>
       <c r="E74">
-        <v>0.01116706843459349</v>
+        <v>0.0295591915961874</v>
       </c>
       <c r="F74">
-        <v>-0.09921296017031005</v>
+        <v>0.006108167215343773</v>
       </c>
       <c r="G74">
-        <v>0.03377066344837407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.03791185729891891</v>
+      </c>
+      <c r="H74">
+        <v>-0.1273563429410835</v>
+      </c>
+      <c r="I74">
+        <v>0.1035996423647553</v>
+      </c>
+      <c r="J74">
+        <v>-0.04967287022204374</v>
+      </c>
+      <c r="K74">
+        <v>0.004392583017397838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09461348302142482</v>
+        <v>0.1067996054531059</v>
       </c>
       <c r="C75">
-        <v>0.01453138243490506</v>
+        <v>-0.04728638733318962</v>
       </c>
       <c r="D75">
-        <v>0.02064515917579503</v>
+        <v>-0.006763507637489133</v>
       </c>
       <c r="E75">
-        <v>0.03441838305625067</v>
+        <v>0.004216713686305744</v>
       </c>
       <c r="F75">
-        <v>-0.1202149330812918</v>
+        <v>0.005185400739424157</v>
       </c>
       <c r="G75">
-        <v>0.06886911227483943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.04726841951188768</v>
+      </c>
+      <c r="H75">
+        <v>-0.04807570499268288</v>
+      </c>
+      <c r="I75">
+        <v>0.1358736017406556</v>
+      </c>
+      <c r="J75">
+        <v>-0.04945179999771701</v>
+      </c>
+      <c r="K75">
+        <v>-0.01419551902303405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1380930262489157</v>
+        <v>0.0603704305238624</v>
       </c>
       <c r="C76">
-        <v>0.03014128120588051</v>
+        <v>-0.02856794930939074</v>
       </c>
       <c r="D76">
-        <v>-0.01500733032272882</v>
+        <v>-0.02880623921584972</v>
       </c>
       <c r="E76">
-        <v>-0.01923700257864585</v>
+        <v>0.04362943186892636</v>
       </c>
       <c r="F76">
-        <v>-0.2247717502010165</v>
+        <v>-0.01623433900387621</v>
       </c>
       <c r="G76">
-        <v>0.1090767003304254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08518963861592023</v>
+      </c>
+      <c r="H76">
+        <v>-0.02584711641322418</v>
+      </c>
+      <c r="I76">
+        <v>0.1307011638774639</v>
+      </c>
+      <c r="J76">
+        <v>-0.03608172360162577</v>
+      </c>
+      <c r="K76">
+        <v>0.009633181658199892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08883240529225245</v>
+        <v>0.07474253885812575</v>
       </c>
       <c r="C77">
-        <v>-0.006924894590665257</v>
+        <v>-0.03115656096769909</v>
       </c>
       <c r="D77">
-        <v>-0.05196217236446159</v>
+        <v>0.01987780366770991</v>
       </c>
       <c r="E77">
-        <v>-0.0536781323299327</v>
+        <v>0.03872264800058902</v>
       </c>
       <c r="F77">
-        <v>0.156681478360674</v>
+        <v>0.0005219346105884258</v>
       </c>
       <c r="G77">
-        <v>-0.1788314349809584</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1995242509499862</v>
+      </c>
+      <c r="H77">
+        <v>0.1373299919180877</v>
+      </c>
+      <c r="I77">
+        <v>-0.1229437652735841</v>
+      </c>
+      <c r="J77">
+        <v>-0.1186262098239956</v>
+      </c>
+      <c r="K77">
+        <v>0.1464801512784694</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2114081429405038</v>
+        <v>0.1485085484586071</v>
       </c>
       <c r="C78">
-        <v>0.07116842351452557</v>
+        <v>-0.09758029225397463</v>
       </c>
       <c r="D78">
-        <v>-0.06745447949466404</v>
+        <v>-0.1015908377789605</v>
       </c>
       <c r="E78">
-        <v>-0.1863779048943809</v>
+        <v>-0.04787564595147079</v>
       </c>
       <c r="F78">
-        <v>-0.004444025457965976</v>
+        <v>-0.1954676112611963</v>
       </c>
       <c r="G78">
-        <v>-0.1391082839091912</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.08503157268414459</v>
+      </c>
+      <c r="H78">
+        <v>0.8328666104596432</v>
+      </c>
+      <c r="I78">
+        <v>0.3245752992505185</v>
+      </c>
+      <c r="J78">
+        <v>0.08344314576075193</v>
+      </c>
+      <c r="K78">
+        <v>0.07924178237301695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1365787763711494</v>
+        <v>0.1346435213432139</v>
       </c>
       <c r="C79">
-        <v>0.0101070414523736</v>
+        <v>-0.04819663683887585</v>
       </c>
       <c r="D79">
-        <v>0.00342891948582179</v>
+        <v>0.0103031627445862</v>
       </c>
       <c r="E79">
-        <v>0.01696903113725733</v>
+        <v>0.009171732800396491</v>
       </c>
       <c r="F79">
-        <v>-0.1666954172222955</v>
+        <v>-0.008839608747873205</v>
       </c>
       <c r="G79">
-        <v>0.0006737825891942824</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.01047584291255696</v>
+      </c>
+      <c r="H79">
+        <v>-0.09102275017666871</v>
+      </c>
+      <c r="I79">
+        <v>0.1417054976240516</v>
+      </c>
+      <c r="J79">
+        <v>-0.08902794913440587</v>
+      </c>
+      <c r="K79">
+        <v>0.02784065691632723</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03515521126320884</v>
+        <v>0.0631389600558747</v>
       </c>
       <c r="C80">
-        <v>0.008983745699388012</v>
+        <v>-0.03885604173313022</v>
       </c>
       <c r="D80">
-        <v>-0.0175672251233758</v>
+        <v>-0.03012353511682679</v>
       </c>
       <c r="E80">
-        <v>0.02788920207650055</v>
+        <v>0.06833553279940044</v>
       </c>
       <c r="F80">
-        <v>0.02051017165636483</v>
+        <v>0.05762990907122677</v>
       </c>
       <c r="G80">
-        <v>-0.07422231245276013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04407882516944336</v>
+      </c>
+      <c r="H80">
+        <v>0.01197239241323032</v>
+      </c>
+      <c r="I80">
+        <v>0.006863436382938644</v>
+      </c>
+      <c r="J80">
+        <v>0.006578936319201339</v>
+      </c>
+      <c r="K80">
+        <v>-0.1153707897664175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1094171284753212</v>
+        <v>0.1312502666776522</v>
       </c>
       <c r="C81">
-        <v>0.01299059727284658</v>
+        <v>-0.05536365949378762</v>
       </c>
       <c r="D81">
-        <v>-0.009021286580071876</v>
+        <v>-0.003332398708948152</v>
       </c>
       <c r="E81">
-        <v>0.02021975072589606</v>
+        <v>0.02769843556438693</v>
       </c>
       <c r="F81">
-        <v>-0.1391199573293516</v>
+        <v>-0.002929761056731663</v>
       </c>
       <c r="G81">
-        <v>0.04249569033040754</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.006718775509928366</v>
+      </c>
+      <c r="H81">
+        <v>-0.07655266315775547</v>
+      </c>
+      <c r="I81">
+        <v>0.1288973787285968</v>
+      </c>
+      <c r="J81">
+        <v>-0.03510105816910945</v>
+      </c>
+      <c r="K81">
+        <v>-0.01849806013300078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1110078911570541</v>
+        <v>0.141121301305405</v>
       </c>
       <c r="C82">
-        <v>0.0240321780883935</v>
+        <v>-0.05166796287839232</v>
       </c>
       <c r="D82">
-        <v>-0.05225130628332222</v>
+        <v>0.004924188381428603</v>
       </c>
       <c r="E82">
-        <v>0.05029989243206034</v>
+        <v>0.05620567689012947</v>
       </c>
       <c r="F82">
-        <v>-0.2356926668241933</v>
+        <v>0.008906373613148831</v>
       </c>
       <c r="G82">
-        <v>0.006635181912176645</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04937858130604903</v>
+      </c>
+      <c r="H82">
+        <v>-0.1471334079520695</v>
+      </c>
+      <c r="I82">
+        <v>0.2591570355381772</v>
+      </c>
+      <c r="J82">
+        <v>-0.01910883742401158</v>
+      </c>
+      <c r="K82">
+        <v>-0.07150882052050464</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1022701374502988</v>
+        <v>0.09004307869799738</v>
       </c>
       <c r="C83">
-        <v>0.05629652936295541</v>
+        <v>-0.1052821258867434</v>
       </c>
       <c r="D83">
-        <v>-0.05897767962939306</v>
+        <v>-0.01003757490885869</v>
       </c>
       <c r="E83">
-        <v>0.02476463418343831</v>
+        <v>0.0254261575717325</v>
       </c>
       <c r="F83">
-        <v>0.07915002877214626</v>
+        <v>-0.009791016174111995</v>
       </c>
       <c r="G83">
-        <v>-0.06778577659129635</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04810445593576421</v>
+      </c>
+      <c r="H83">
+        <v>0.0426221572413885</v>
+      </c>
+      <c r="I83">
+        <v>-0.03362624932321089</v>
+      </c>
+      <c r="J83">
+        <v>-0.1077261148351302</v>
+      </c>
+      <c r="K83">
+        <v>-0.1048027869403261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05462397065200315</v>
+        <v>0.05448824178436711</v>
       </c>
       <c r="C84">
-        <v>0.02382385663534663</v>
+        <v>0.03091681777155954</v>
       </c>
       <c r="D84">
-        <v>0.04388273380277825</v>
+        <v>0.04039224644083657</v>
       </c>
       <c r="E84">
-        <v>-0.03539136034490283</v>
+        <v>-0.01790256995107627</v>
       </c>
       <c r="F84">
-        <v>-0.02392941380718472</v>
+        <v>0.02015186276505052</v>
       </c>
       <c r="G84">
-        <v>0.025412844263695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.004115055288226652</v>
+      </c>
+      <c r="H84">
+        <v>0.09903401051599081</v>
+      </c>
+      <c r="I84">
+        <v>-0.00827769466577491</v>
+      </c>
+      <c r="J84">
+        <v>0.3610350697234637</v>
+      </c>
+      <c r="K84">
+        <v>-0.103904221308557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1006061482098596</v>
+        <v>0.118976136021857</v>
       </c>
       <c r="C85">
-        <v>0.02071655296203355</v>
+        <v>-0.04246777596772915</v>
       </c>
       <c r="D85">
-        <v>-0.02421956777662653</v>
+        <v>0.01068770039402173</v>
       </c>
       <c r="E85">
-        <v>0.02052530060136495</v>
+        <v>0.04738739029344788</v>
       </c>
       <c r="F85">
-        <v>-0.1958451884440028</v>
+        <v>-0.003658879809543864</v>
       </c>
       <c r="G85">
-        <v>0.01296270803449995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01745980581878347</v>
+      </c>
+      <c r="H85">
+        <v>-0.09283803499132186</v>
+      </c>
+      <c r="I85">
+        <v>0.1652981768833245</v>
+      </c>
+      <c r="J85">
+        <v>-0.07384977329888463</v>
+      </c>
+      <c r="K85">
+        <v>0.0306735760899094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06614042129340446</v>
+        <v>0.1416479987822649</v>
       </c>
       <c r="C86">
-        <v>0.02886528155738143</v>
+        <v>-0.1082337136104077</v>
       </c>
       <c r="D86">
-        <v>-0.049776760982999</v>
+        <v>0.8390286044028294</v>
       </c>
       <c r="E86">
-        <v>-0.0463356990385491</v>
+        <v>-0.4245794756868773</v>
       </c>
       <c r="F86">
-        <v>0.0408867122514234</v>
+        <v>-0.02690830511053874</v>
       </c>
       <c r="G86">
-        <v>-0.1417330729324867</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.1260842696821072</v>
+      </c>
+      <c r="H86">
+        <v>0.0002137727064066788</v>
+      </c>
+      <c r="I86">
+        <v>0.06512336681239904</v>
+      </c>
+      <c r="J86">
+        <v>0.05545188991564769</v>
+      </c>
+      <c r="K86">
+        <v>-0.03598132040549529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1028906836148304</v>
+        <v>0.1090317319038769</v>
       </c>
       <c r="C87">
-        <v>0.06087356747846879</v>
+        <v>-0.09521695336994115</v>
       </c>
       <c r="D87">
-        <v>-0.01594561177560511</v>
+        <v>-0.005054899278750277</v>
       </c>
       <c r="E87">
-        <v>-0.05282791537978952</v>
+        <v>0.03147022902119542</v>
       </c>
       <c r="F87">
-        <v>0.02318624547349993</v>
+        <v>-0.04789732761383041</v>
       </c>
       <c r="G87">
-        <v>-0.1201088688065373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.1275048113271419</v>
+      </c>
+      <c r="H87">
+        <v>0.06146262285561806</v>
+      </c>
+      <c r="I87">
+        <v>-0.1433930327047739</v>
+      </c>
+      <c r="J87">
+        <v>-0.09137074089794499</v>
+      </c>
+      <c r="K87">
+        <v>-0.04697543404632712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06907365473423148</v>
+        <v>0.05631763395934447</v>
       </c>
       <c r="C88">
-        <v>0.03587783997381104</v>
+        <v>-0.04681825249731303</v>
       </c>
       <c r="D88">
-        <v>-0.02460123165534951</v>
+        <v>-0.01166713037184484</v>
       </c>
       <c r="E88">
-        <v>-0.01112824281972947</v>
+        <v>0.04583896053181236</v>
       </c>
       <c r="F88">
-        <v>-0.000582339587903842</v>
+        <v>0.02052120755112086</v>
       </c>
       <c r="G88">
-        <v>-0.06193879817336694</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0381709943332029</v>
+      </c>
+      <c r="H88">
+        <v>-0.02318740916893423</v>
+      </c>
+      <c r="I88">
+        <v>-0.01577765545910387</v>
+      </c>
+      <c r="J88">
+        <v>0.02130053039246924</v>
+      </c>
+      <c r="K88">
+        <v>0.008621222983853783</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09887567525355175</v>
+        <v>0.1707806236534573</v>
       </c>
       <c r="C89">
-        <v>-0.370240904049949</v>
+        <v>0.3749917909369087</v>
       </c>
       <c r="D89">
-        <v>-0.1112140909238963</v>
+        <v>0.02003662669733272</v>
       </c>
       <c r="E89">
-        <v>-0.007763641565839928</v>
+        <v>0.02114911013249405</v>
       </c>
       <c r="F89">
-        <v>0.07608096328943037</v>
+        <v>-0.05653385444363599</v>
       </c>
       <c r="G89">
-        <v>-0.01240248817180236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01453271463402763</v>
+      </c>
+      <c r="H89">
+        <v>0.03973717595188601</v>
+      </c>
+      <c r="I89">
+        <v>-0.03543345193212301</v>
+      </c>
+      <c r="J89">
+        <v>0.03565885917800763</v>
+      </c>
+      <c r="K89">
+        <v>-0.06831219604951831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.0787974910673554</v>
+        <v>0.1328687264427815</v>
       </c>
       <c r="C90">
-        <v>-0.296757805735824</v>
+        <v>0.2787094883513934</v>
       </c>
       <c r="D90">
-        <v>-0.05301238083832044</v>
+        <v>0.01376259143589079</v>
       </c>
       <c r="E90">
-        <v>-0.04277572856818062</v>
+        <v>0.0128925553607223</v>
       </c>
       <c r="F90">
-        <v>0.05322360348090233</v>
+        <v>0.001045880820116194</v>
       </c>
       <c r="G90">
-        <v>-0.04302572325684415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.057661957216039</v>
+      </c>
+      <c r="H90">
+        <v>-0.01222621153910087</v>
+      </c>
+      <c r="I90">
+        <v>-0.04601688922746003</v>
+      </c>
+      <c r="J90">
+        <v>0.03837658354987185</v>
+      </c>
+      <c r="K90">
+        <v>0.03486917530525006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08527139140297642</v>
+        <v>0.08234643792768108</v>
       </c>
       <c r="C91">
-        <v>0.02244365434754329</v>
+        <v>-0.04010540538077518</v>
       </c>
       <c r="D91">
-        <v>-0.003432036537559641</v>
+        <v>0.01904527780437547</v>
       </c>
       <c r="E91">
-        <v>0.01832628921591476</v>
+        <v>0.0168763923055259</v>
       </c>
       <c r="F91">
-        <v>-0.08281693151509124</v>
+        <v>-0.01018287380228395</v>
       </c>
       <c r="G91">
-        <v>0.07040884311661326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03840968204428569</v>
+      </c>
+      <c r="H91">
+        <v>-0.05270870919277132</v>
+      </c>
+      <c r="I91">
+        <v>0.105179007337445</v>
+      </c>
+      <c r="J91">
+        <v>-0.04129447837062012</v>
+      </c>
+      <c r="K91">
+        <v>-0.008017199170983671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07298828752248331</v>
+        <v>0.1446995119604475</v>
       </c>
       <c r="C92">
-        <v>-0.3403739163048618</v>
+        <v>0.3306373024276327</v>
       </c>
       <c r="D92">
-        <v>-0.07303887952839103</v>
+        <v>0.001199745360144563</v>
       </c>
       <c r="E92">
-        <v>-0.0220191146414698</v>
+        <v>0.008078388759198933</v>
       </c>
       <c r="F92">
-        <v>0.03665486782388361</v>
+        <v>-0.03982437755001191</v>
       </c>
       <c r="G92">
-        <v>0.0312577999719023</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.05092377391599782</v>
+      </c>
+      <c r="H92">
+        <v>0.02873069805202214</v>
+      </c>
+      <c r="I92">
+        <v>0.03492832030555601</v>
+      </c>
+      <c r="J92">
+        <v>0.01893380059983603</v>
+      </c>
+      <c r="K92">
+        <v>-0.004201380642179325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08988861885116246</v>
+        <v>0.138219912464277</v>
       </c>
       <c r="C93">
-        <v>-0.2947417989238482</v>
+        <v>0.3101253968799543</v>
       </c>
       <c r="D93">
-        <v>-0.05229733599249737</v>
+        <v>0.04062231292654219</v>
       </c>
       <c r="E93">
-        <v>-0.006198548929439366</v>
+        <v>0.01540811805166759</v>
       </c>
       <c r="F93">
-        <v>0.01930431556220676</v>
+        <v>0.02605730576540643</v>
       </c>
       <c r="G93">
-        <v>0.007247539636164702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03144396473704129</v>
+      </c>
+      <c r="H93">
+        <v>-0.0277451003172865</v>
+      </c>
+      <c r="I93">
+        <v>-0.02369775165475354</v>
+      </c>
+      <c r="J93">
+        <v>-0.001004751858460286</v>
+      </c>
+      <c r="K93">
+        <v>-0.00786201572124959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09505639382133386</v>
+        <v>0.1213032877130805</v>
       </c>
       <c r="C94">
-        <v>0.04263395886518775</v>
+        <v>-0.05124802291400946</v>
       </c>
       <c r="D94">
-        <v>0.01043228702926452</v>
+        <v>-0.02549344019999536</v>
       </c>
       <c r="E94">
-        <v>0.003911614183683711</v>
+        <v>0.02597368469785719</v>
       </c>
       <c r="F94">
-        <v>-0.1323511736228702</v>
+        <v>-0.01898252479793149</v>
       </c>
       <c r="G94">
-        <v>0.06920234130583143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.05954221150098412</v>
+      </c>
+      <c r="H94">
+        <v>-0.07859387296765312</v>
+      </c>
+      <c r="I94">
+        <v>0.1258725549293772</v>
+      </c>
+      <c r="J94">
+        <v>-0.01278071501257982</v>
+      </c>
+      <c r="K94">
+        <v>0.01514833874999717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1371829950571379</v>
+        <v>0.120742616962114</v>
       </c>
       <c r="C95">
-        <v>0.06627534121956256</v>
+        <v>-0.06394173985848815</v>
       </c>
       <c r="D95">
-        <v>-0.07218281278721747</v>
+        <v>-0.01682205139520515</v>
       </c>
       <c r="E95">
-        <v>-0.02694769763370122</v>
+        <v>0.05561017239682989</v>
       </c>
       <c r="F95">
-        <v>0.05124920568210704</v>
+        <v>-0.03052082176370719</v>
       </c>
       <c r="G95">
-        <v>-0.1248176260622253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1037793075398707</v>
+      </c>
+      <c r="H95">
+        <v>0.07290865034922518</v>
+      </c>
+      <c r="I95">
+        <v>-0.200527889082568</v>
+      </c>
+      <c r="J95">
+        <v>0.04607487335689221</v>
+      </c>
+      <c r="K95">
+        <v>-0.1371254278281837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.006286119613614441</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002945876937474246</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.00517147694827845</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0006043311504881815</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.002454477557731337</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.001831831310313339</v>
+      </c>
+      <c r="H96">
+        <v>0.0310123384844145</v>
+      </c>
+      <c r="I96">
+        <v>-0.00790474770118735</v>
+      </c>
+      <c r="J96">
+        <v>-0.008968920151893638</v>
+      </c>
+      <c r="K96">
+        <v>0.02501770283386919</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2070905830863967</v>
+        <v>0.1887705627242904</v>
       </c>
       <c r="C97">
-        <v>-0.1477110677835919</v>
+        <v>-0.03029952407905387</v>
       </c>
       <c r="D97">
-        <v>0.8982346645162702</v>
+        <v>-0.4294198186936932</v>
       </c>
       <c r="E97">
-        <v>-0.0250106400238573</v>
+        <v>-0.7987041734801819</v>
       </c>
       <c r="F97">
-        <v>0.07342974448300423</v>
+        <v>0.291431539516896</v>
       </c>
       <c r="G97">
-        <v>-0.03452308732226603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03474771983575977</v>
+      </c>
+      <c r="H97">
+        <v>-0.04559091931877202</v>
+      </c>
+      <c r="I97">
+        <v>-0.04711814683560546</v>
+      </c>
+      <c r="J97">
+        <v>0.05335519196876304</v>
+      </c>
+      <c r="K97">
+        <v>-0.02146337458501345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3088500434136776</v>
+        <v>0.2660482352785129</v>
       </c>
       <c r="C98">
-        <v>0.0855898453734612</v>
+        <v>-0.09107897085493649</v>
       </c>
       <c r="D98">
-        <v>-0.06343673188297079</v>
+        <v>0.03570943416393705</v>
       </c>
       <c r="E98">
-        <v>0.2466844644234422</v>
+        <v>0.03159322018496073</v>
       </c>
       <c r="F98">
-        <v>0.2114721325989725</v>
+        <v>-0.02717963530623699</v>
       </c>
       <c r="G98">
-        <v>0.2540663259772492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3856870954790153</v>
+      </c>
+      <c r="H98">
+        <v>0.07655744932195965</v>
+      </c>
+      <c r="I98">
+        <v>-0.1655190605301414</v>
+      </c>
+      <c r="J98">
+        <v>-0.0696995257468363</v>
+      </c>
+      <c r="K98">
+        <v>-0.6238722454990752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08455876001140446</v>
+        <v>0.0592064105379682</v>
       </c>
       <c r="C99">
-        <v>0.0358995624412148</v>
+        <v>-0.02256039164984964</v>
       </c>
       <c r="D99">
-        <v>-0.007365020504132164</v>
+        <v>-0.03840121374389209</v>
       </c>
       <c r="E99">
-        <v>0.01030516914646894</v>
+        <v>0.03709570504467592</v>
       </c>
       <c r="F99">
-        <v>-0.01699161140705012</v>
+        <v>-0.009093146799194813</v>
       </c>
       <c r="G99">
-        <v>-0.009291204488172262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01665351686471074</v>
+      </c>
+      <c r="H99">
+        <v>0.002187436344496791</v>
+      </c>
+      <c r="I99">
+        <v>0.02022958628397658</v>
+      </c>
+      <c r="J99">
+        <v>0.02128220712925367</v>
+      </c>
+      <c r="K99">
+        <v>0.05635253284148824</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01581432998652801</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01495479313665413</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.0941170753189772</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.02047164802312328</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.04364814352757683</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.03448021667572666</v>
+      </c>
+      <c r="H100">
+        <v>-0.05017472421714835</v>
+      </c>
+      <c r="I100">
+        <v>0.04030638443984356</v>
+      </c>
+      <c r="J100">
+        <v>0.002305073678512229</v>
+      </c>
+      <c r="K100">
+        <v>-0.287565954544415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05740578674917753</v>
+        <v>0.04108510875966784</v>
       </c>
       <c r="C101">
-        <v>0.007629404782421355</v>
+        <v>-0.02286375177731676</v>
       </c>
       <c r="D101">
-        <v>-0.02447742633468499</v>
+        <v>-0.01255336172204421</v>
       </c>
       <c r="E101">
-        <v>-0.04427296509826888</v>
+        <v>0.04038439343856598</v>
       </c>
       <c r="F101">
-        <v>-0.03583473103367563</v>
+        <v>-0.003593941528267478</v>
       </c>
       <c r="G101">
-        <v>-0.04730183461764648</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.0851532443406053</v>
+      </c>
+      <c r="H101">
+        <v>-0.03385497145415369</v>
+      </c>
+      <c r="I101">
+        <v>-0.002747911380865181</v>
+      </c>
+      <c r="J101">
+        <v>-0.03701479773435903</v>
+      </c>
+      <c r="K101">
+        <v>-0.05990797501178798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
